--- a/InstanceBordeauxV1.xlsx
+++ b/InstanceBordeauxV1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/Teaching/ST7-OSTP/DB Project/InstancesV1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/PhD Years/PhD/Code/XWSRP/data/teaching/V1/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99856E97-9ED7-EC49-8A3B-C6110F6FF789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9363902-417F-144D-99C2-B073F4C9A849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="460" windowWidth="23940" windowHeight="16540" activeTab="2" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="3340" yWindow="1060" windowWidth="23940" windowHeight="16540" activeTab="2" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>Latitude</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>6:00pm</t>
+  </si>
+  <si>
+    <t>7:00am</t>
+  </si>
+  <si>
+    <t>5:00pm</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>44.7546825494</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
   </si>
 </sst>
 </file>
@@ -243,10 +258,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -572,7 +586,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,26 +600,26 @@
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -613,10 +627,10 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
@@ -626,20 +640,20 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
@@ -656,14 +670,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -675,7 +689,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,26 +700,39 @@
     <col min="4" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -717,7 +744,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,29 +759,29 @@
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -856,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>49</v>
@@ -977,7 +1004,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
@@ -989,7 +1016,7 @@
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1033,58 +1060,52 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
@@ -1367,14 +1388,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
